--- a/predict_model/predict_results/0_train_1nstep_denguefever_prediction_results_by_RandomForest_in_An Giang.xlsx
+++ b/predict_model/predict_results/0_train_1nstep_denguefever_prediction_results_by_RandomForest_in_An Giang.xlsx
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-701.3128144687071</v>
+        <v>4.5458762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3683936520887678</v>
+        <v>9.276660627342986</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G2" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I2" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-403.3042690081989</v>
+        <v>2.1801651</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01577773378047462</v>
+        <v>9.192512542121547</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G3" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I3" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-100.3085272597023</v>
+        <v>1.9946192</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8302591377842181</v>
+        <v>9.773020169695108</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G4" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I4" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>196.2405092942922</v>
+        <v>3.9428518</v>
       </c>
       <c r="D5" t="n">
-        <v>1.500438407303896</v>
+        <v>10.82223237718727</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G5" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I5" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="6">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-68.07493179801766</v>
+        <v>3.9892383</v>
       </c>
       <c r="D6" t="n">
-        <v>2.360256009724425</v>
+        <v>18.68313252498819</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G6" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I6" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="7">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-132.5421088235522</v>
+        <v>3.5717599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8600281833582468</v>
+        <v>21.17976455068966</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G7" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I7" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="8">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-113.2019654443761</v>
+        <v>3.2934409</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6148695293647967</v>
+        <v>22.64275309134442</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G8" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I8" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="9">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>441.2157931095912</v>
+        <v>7.0043603</v>
       </c>
       <c r="D9" t="n">
-        <v>1.976349985339957</v>
+        <v>40.93787496575654</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G9" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I9" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="10">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67.30614134538838</v>
+        <v>8.0248632</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.683999457015367</v>
+        <v>51.47637072161829</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G10" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I10" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="11">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-190.5625806545845</v>
+        <v>7.1899063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5693388268887376</v>
+        <v>40.3135731474156</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G11" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I11" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="12">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-132.5421088235522</v>
+        <v>6.7724279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.878607012513927</v>
+        <v>36.82137453035804</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G12" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I12" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="13">
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-113.2019654443761</v>
+        <v>6.4941089</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.236312285554975</v>
+        <v>33.0607230090522</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G13" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I13" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="14">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>175.5636999695009</v>
+        <v>8.293564399999999</v>
       </c>
       <c r="D14" t="n">
-        <v>2.117427099665872</v>
+        <v>26.40270342391378</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G14" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I14" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="15">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-712.0074623279248</v>
+        <v>3.706621</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09987128870169631</v>
+        <v>19.41358813378766</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G15" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I15" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="16">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-87.40014890272772</v>
+        <v>3.6139554</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5768343868290963</v>
+        <v>20.19073366844742</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G16" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I16" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="17">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>41.3848590166732</v>
+        <v>4.4479451</v>
       </c>
       <c r="D17" t="n">
-        <v>1.601532521110888</v>
+        <v>23.31445886324473</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G17" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I17" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="18">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54.26335702904636</v>
+        <v>5.3746004</v>
       </c>
       <c r="D18" t="n">
-        <v>1.65342240684589</v>
+        <v>22.2313250980478</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G18" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I18" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="19">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80.02036695162738</v>
+        <v>6.4865867</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8368699135530239</v>
+        <v>23.31958501779039</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G19" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I19" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="20">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>47.82411497177713</v>
+        <v>7.3669091</v>
       </c>
       <c r="D20" t="n">
-        <v>1.074136454670401</v>
+        <v>21.58607576253174</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G20" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I20" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="21">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1200.44998588262</v>
+        <v>16.540796</v>
       </c>
       <c r="D21" t="n">
-        <v>1.323399829814669</v>
+        <v>22.85236921370393</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G21" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I21" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="22">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1342.113491814394</v>
+        <v>26.7340036</v>
       </c>
       <c r="D22" t="n">
-        <v>2.162358263336762</v>
+        <v>25.70161123603369</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G22" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I22" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="23">
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>517.8894105549922</v>
+        <v>30.9966177</v>
       </c>
       <c r="D23" t="n">
-        <v>1.040294108847597</v>
+        <v>21.24782815378159</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G23" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I23" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="24">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-512.3906944937194</v>
+        <v>27.8459899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.366522052119256</v>
+        <v>20.88212306327293</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G24" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I24" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="25">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.749351081719047</v>
+        <v>28.401983</v>
       </c>
       <c r="D25" t="n">
-        <v>1.726073723850363</v>
+        <v>21.68724552179848</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G25" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I25" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="26">
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1190.610837066715</v>
+        <v>20.3713135</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6138441720622638</v>
+        <v>18.16145202693266</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G26" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I26" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="27">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1522.279785290376</v>
+        <v>9.954164499999999</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2725256404139175</v>
+        <v>20.46526682268298</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1321,16 +1321,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G27" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I27" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="28">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21.99555899616917</v>
+        <v>10.6486411</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3820261455317257</v>
+        <v>19.78790910452589</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1354,16 +1354,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G28" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I28" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="29">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>144.2506970782331</v>
+        <v>12.2227881</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7523576719411513</v>
+        <v>20.68203685424103</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G29" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I29" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="30">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-93.82509008809238</v>
+        <v>12.0838928</v>
       </c>
       <c r="D30" t="n">
-        <v>2.035259320709247</v>
+        <v>20.67934439920298</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G30" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I30" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="31">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-351.2043164521558</v>
+        <v>10.0930599</v>
       </c>
       <c r="D31" t="n">
-        <v>1.050878347105341</v>
+        <v>21.14356856986812</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G31" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I31" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="32">
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-454.1560014386472</v>
+        <v>7.3614519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8949504329945996</v>
+        <v>24.18977734442403</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G32" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I32" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="33">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>240.7678930669221</v>
+        <v>9.6300755</v>
       </c>
       <c r="D33" t="n">
-        <v>1.838639552354129</v>
+        <v>26.85712269754115</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G33" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I33" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="34">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-106.6940541858625</v>
+        <v>9.3985833</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2173162655617719</v>
+        <v>21.00802692352049</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G34" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I34" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="35">
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>202.1610146714465</v>
+        <v>11.3894162</v>
       </c>
       <c r="D35" t="n">
-        <v>1.344550044074609</v>
+        <v>21.666496707137</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G35" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I35" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="36">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>157.1196472781685</v>
+        <v>13.05616</v>
       </c>
       <c r="D36" t="n">
-        <v>3.707664306038867</v>
+        <v>23.30425118427168</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G36" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I36" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
     <row r="37">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-267.5560706634021</v>
+        <v>11.6672068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07320222537077799</v>
+        <v>22.29710082766639</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1651,16 +1651,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>516.997866782723</v>
+        <v>17.10634079940464</v>
       </c>
       <c r="G37" t="n">
-        <v>338.128556208318</v>
+        <v>14.44170401034166</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9804255065767331</v>
+        <v>2.342934191223868</v>
       </c>
       <c r="I37" t="n">
-        <v>267286.7942578862</v>
+        <v>292.6268955453759</v>
       </c>
     </row>
   </sheetData>
